--- a/public/download/chipbot.xlsx
+++ b/public/download/chipbot.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">Раздел</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t xml:space="preserve">Изображение</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссылка на товар</t>
   </si>
 </sst>
 </file>
@@ -137,18 +134,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24.6"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -163,9 +162,6 @@
       </c>
       <c r="E1" s="0" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -192,7 +188,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F:F A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -215,7 +211,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F:F A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
